--- a/statistics/HistoricalDistanceData/historical_distance/Q4611820-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q4611820-en.xlsx
@@ -34,21 +34,21 @@
     <t>Weather bureau rates storm worst since 2004</t>
   </si>
   <si>
+    <t>Brisbane in chaos after wild storm</t>
+  </si>
+  <si>
     <t>Raging storms claim second victim</t>
   </si>
   <si>
-    <t>Brisbane in chaos after wild storm</t>
-  </si>
-  <si>
     <t>2008-11-17T23:00:00UTC</t>
   </si>
   <si>
+    <t>2008-11-17T13:00:01UTC</t>
+  </si>
+  <si>
     <t>2008-11-21T00:00:00UTC</t>
   </si>
   <si>
-    <t>2008-11-17T13:00:01UTC</t>
-  </si>
-  <si>
     <t>day_1</t>
   </si>
   <si>
@@ -58,10 +58,10 @@
     <t>http://www.news.com.au/couriermail/story/0,23739,24666016-5018248,00.html</t>
   </si>
   <si>
+    <t>http://www.theage.com.au/national/brisbane-in-chaos-after-wild-storm-20081117-694i.html</t>
+  </si>
+  <si>
     <t>http://www.smh.com.au/news/national/raging-storms-claim-second-victim/2008/11/20/1226770649479.html</t>
-  </si>
-  <si>
-    <t>http://www.theage.com.au/national/brisbane-in-chaos-after-wild-storm-20081117-694i.html</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -497,10 +497,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
